--- a/data/pca/factorExposure/factorExposure_2009-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01747888303750281</v>
+        <v>-0.01684656475890572</v>
       </c>
       <c r="C2">
-        <v>0.002083264562980913</v>
+        <v>-0.001319608075079158</v>
       </c>
       <c r="D2">
-        <v>-0.008010752404099857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008829454912138124</v>
+      </c>
+      <c r="E2">
+        <v>-0.002563764418205677</v>
+      </c>
+      <c r="F2">
+        <v>0.01321257215194782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08785690493889223</v>
+        <v>-0.09098881158460885</v>
       </c>
       <c r="C4">
-        <v>0.02032850770394695</v>
+        <v>-0.01567097738525429</v>
       </c>
       <c r="D4">
-        <v>-0.07968280198906304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.083227837098762</v>
+      </c>
+      <c r="E4">
+        <v>-0.03019490525244982</v>
+      </c>
+      <c r="F4">
+        <v>-0.03260176934447054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.118391111444998e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.405478039830562e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002172607740580018</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001225500761116025</v>
+      </c>
+      <c r="F5">
+        <v>8.099453320199246e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1553765300370616</v>
+        <v>-0.1633072132449535</v>
       </c>
       <c r="C6">
-        <v>0.03301709913070593</v>
+        <v>-0.03163044121308444</v>
       </c>
       <c r="D6">
-        <v>0.03184983964094563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02246360618524083</v>
+      </c>
+      <c r="E6">
+        <v>-0.01411648246951286</v>
+      </c>
+      <c r="F6">
+        <v>-0.040924420607328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05662679627421921</v>
+        <v>-0.06005133329533672</v>
       </c>
       <c r="C7">
-        <v>0.001588174391522814</v>
+        <v>0.001593629820032825</v>
       </c>
       <c r="D7">
-        <v>-0.04606019484883697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05151391157557376</v>
+      </c>
+      <c r="E7">
+        <v>-0.01400637325602697</v>
+      </c>
+      <c r="F7">
+        <v>-0.04818802746571808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06024489224081219</v>
+        <v>-0.05639889292339181</v>
       </c>
       <c r="C8">
-        <v>-0.009483124744117947</v>
+        <v>0.01165176770533851</v>
       </c>
       <c r="D8">
-        <v>-0.02593240946667027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0306577655998911</v>
+      </c>
+      <c r="E8">
+        <v>-0.01634439798514082</v>
+      </c>
+      <c r="F8">
+        <v>0.02704562571830739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06816682839364674</v>
+        <v>-0.07061364678017412</v>
       </c>
       <c r="C9">
-        <v>0.01605380519785696</v>
+        <v>-0.01108705419141422</v>
       </c>
       <c r="D9">
-        <v>-0.08174710356528149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0860012841560471</v>
+      </c>
+      <c r="E9">
+        <v>-0.02796017855208522</v>
+      </c>
+      <c r="F9">
+        <v>-0.04924847908343218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08705997886843088</v>
+        <v>-0.08754661259654156</v>
       </c>
       <c r="C10">
-        <v>0.01864167362430536</v>
+        <v>-0.02293215212208281</v>
       </c>
       <c r="D10">
-        <v>0.1676794392495965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1585733824677854</v>
+      </c>
+      <c r="E10">
+        <v>0.03541143098661233</v>
+      </c>
+      <c r="F10">
+        <v>0.0594514024873203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08886820212193557</v>
+        <v>-0.0858313260449617</v>
       </c>
       <c r="C11">
-        <v>0.01751211135209553</v>
+        <v>-0.01215057678060994</v>
       </c>
       <c r="D11">
-        <v>-0.113337679018263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1189725633981781</v>
+      </c>
+      <c r="E11">
+        <v>-0.05269586483677291</v>
+      </c>
+      <c r="F11">
+        <v>-0.02562314506781516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09643911182355876</v>
+        <v>-0.09063877404248723</v>
       </c>
       <c r="C12">
-        <v>0.0162989732113805</v>
+        <v>-0.01011064248125836</v>
       </c>
       <c r="D12">
-        <v>-0.1205709031981606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1348230505341315</v>
+      </c>
+      <c r="E12">
+        <v>-0.05446933979491041</v>
+      </c>
+      <c r="F12">
+        <v>-0.03173242306047207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04457808292272997</v>
+        <v>-0.04417199929932687</v>
       </c>
       <c r="C13">
-        <v>0.006862825711279356</v>
+        <v>-0.003347644428753935</v>
       </c>
       <c r="D13">
-        <v>-0.04838178098829107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05512115278730935</v>
+      </c>
+      <c r="E13">
+        <v>-0.001996257650677866</v>
+      </c>
+      <c r="F13">
+        <v>-0.004354026227840041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01893875023476937</v>
+        <v>-0.02241799113663751</v>
       </c>
       <c r="C14">
-        <v>0.01494897019099333</v>
+        <v>-0.01376850196663859</v>
       </c>
       <c r="D14">
-        <v>-0.03270338503615752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03369618767186928</v>
+      </c>
+      <c r="E14">
+        <v>-0.02110304839893752</v>
+      </c>
+      <c r="F14">
+        <v>-0.01307886051324667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03446911705584225</v>
+        <v>-0.03463123384619317</v>
       </c>
       <c r="C15">
-        <v>0.007957210936724262</v>
+        <v>-0.006185551700542416</v>
       </c>
       <c r="D15">
-        <v>-0.04729116968357044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04713483326994319</v>
+      </c>
+      <c r="E15">
+        <v>-0.01000846645908737</v>
+      </c>
+      <c r="F15">
+        <v>-0.03026185982070576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07248904170894165</v>
+        <v>-0.07053541567540096</v>
       </c>
       <c r="C16">
-        <v>0.007298882887165492</v>
+        <v>-0.001803071919874824</v>
       </c>
       <c r="D16">
-        <v>-0.1170332621410372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.129982206831428</v>
+      </c>
+      <c r="E16">
+        <v>-0.0657841952624489</v>
+      </c>
+      <c r="F16">
+        <v>-0.0284575275463843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001326583306448313</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004439582639590804</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002387845647007053</v>
+      </c>
+      <c r="E17">
+        <v>-0.001870532063752324</v>
+      </c>
+      <c r="F17">
+        <v>0.001969973861365434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02590208624913491</v>
+        <v>-0.04409722928702551</v>
       </c>
       <c r="C18">
-        <v>-0.001376868557435968</v>
+        <v>0.001144728404388945</v>
       </c>
       <c r="D18">
-        <v>-0.02335583150054112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01781137626772084</v>
+      </c>
+      <c r="E18">
+        <v>0.003290763494289216</v>
+      </c>
+      <c r="F18">
+        <v>0.009299376908140471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06406444174531178</v>
+        <v>-0.06270564809696448</v>
       </c>
       <c r="C20">
-        <v>0.005986031969647364</v>
+        <v>-0.002137910838576613</v>
       </c>
       <c r="D20">
-        <v>-0.07363704086738293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07882899814354069</v>
+      </c>
+      <c r="E20">
+        <v>-0.06412899737030035</v>
+      </c>
+      <c r="F20">
+        <v>-0.03007421309184107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04111851634248034</v>
+        <v>-0.04340689546164177</v>
       </c>
       <c r="C21">
-        <v>0.01046399868728745</v>
+        <v>-0.007773115238812927</v>
       </c>
       <c r="D21">
-        <v>-0.03637340959411729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03714865580238579</v>
+      </c>
+      <c r="E21">
+        <v>-0.00403112497399848</v>
+      </c>
+      <c r="F21">
+        <v>0.02366585982753883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03935015900690177</v>
+        <v>-0.04161489571798629</v>
       </c>
       <c r="C22">
-        <v>0.001128853310466663</v>
+        <v>-0.0008535189967486252</v>
       </c>
       <c r="D22">
-        <v>-0.001842897319073949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.008023292718287587</v>
+      </c>
+      <c r="E22">
+        <v>-0.03590561418097186</v>
+      </c>
+      <c r="F22">
+        <v>0.05432386005661795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03931268554729114</v>
+        <v>-0.04158348943540656</v>
       </c>
       <c r="C23">
-        <v>0.001116244452325137</v>
+        <v>-0.0008414644884858875</v>
       </c>
       <c r="D23">
-        <v>-0.001861529179990663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.008037344252038342</v>
+      </c>
+      <c r="E23">
+        <v>-0.03593410897780955</v>
+      </c>
+      <c r="F23">
+        <v>0.05437964590257537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08000064655471902</v>
+        <v>-0.07650738364214829</v>
       </c>
       <c r="C24">
-        <v>0.008099070046202932</v>
+        <v>-0.002640663730095879</v>
       </c>
       <c r="D24">
-        <v>-0.1179430810924733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1230582160496905</v>
+      </c>
+      <c r="E24">
+        <v>-0.05195374461752544</v>
+      </c>
+      <c r="F24">
+        <v>-0.03218500017378486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08496879599281397</v>
+        <v>-0.08163969733079507</v>
       </c>
       <c r="C25">
-        <v>0.01054414147456349</v>
+        <v>-0.005634588241327186</v>
       </c>
       <c r="D25">
-        <v>-0.1058073609163932</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1113182963008053</v>
+      </c>
+      <c r="E25">
+        <v>-0.03571062320656295</v>
+      </c>
+      <c r="F25">
+        <v>-0.02884816836477751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0570463941429908</v>
+        <v>-0.06085267284385968</v>
       </c>
       <c r="C26">
-        <v>0.01841633456778163</v>
+        <v>-0.01521527625166679</v>
       </c>
       <c r="D26">
-        <v>-0.03867899896256145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04763179929108698</v>
+      </c>
+      <c r="E26">
+        <v>-0.03254837074300788</v>
+      </c>
+      <c r="F26">
+        <v>0.004992349944200077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1392187781070537</v>
+        <v>-0.1470302502114875</v>
       </c>
       <c r="C28">
-        <v>0.01940538646822396</v>
+        <v>-0.02659664930600731</v>
       </c>
       <c r="D28">
-        <v>0.2597708425805507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2554912997107447</v>
+      </c>
+      <c r="E28">
+        <v>0.06619666781941368</v>
+      </c>
+      <c r="F28">
+        <v>-0.004832631148945629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02516168871477757</v>
+        <v>-0.02768110012281044</v>
       </c>
       <c r="C29">
-        <v>0.009636945037058576</v>
+        <v>-0.008956949722331239</v>
       </c>
       <c r="D29">
-        <v>-0.03038063308952583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03045158521179694</v>
+      </c>
+      <c r="E29">
+        <v>-0.01699800248294822</v>
+      </c>
+      <c r="F29">
+        <v>0.01374337551963888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05666002066876674</v>
+        <v>-0.05439493688158432</v>
       </c>
       <c r="C30">
-        <v>0.007607020946348029</v>
+        <v>-0.002761755901966242</v>
       </c>
       <c r="D30">
-        <v>-0.07760243104989585</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08591145458390537</v>
+      </c>
+      <c r="E30">
+        <v>-0.01550830865810877</v>
+      </c>
+      <c r="F30">
+        <v>-0.08116352925768468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05078542361097627</v>
+        <v>-0.05129370814677314</v>
       </c>
       <c r="C31">
-        <v>0.01820776635312344</v>
+        <v>-0.01664705766060449</v>
       </c>
       <c r="D31">
-        <v>-0.02277767961507275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0259209529161792</v>
+      </c>
+      <c r="E31">
+        <v>-0.02910502829575079</v>
+      </c>
+      <c r="F31">
+        <v>0.000775141732404228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04643127987482155</v>
+        <v>-0.05083970580914692</v>
       </c>
       <c r="C32">
-        <v>0.002430757587873551</v>
+        <v>0.001070951371049868</v>
       </c>
       <c r="D32">
-        <v>-0.02864693923464455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03338821582354773</v>
+      </c>
+      <c r="E32">
+        <v>-0.03573649028782583</v>
+      </c>
+      <c r="F32">
+        <v>-0.002593644500504132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08916730130512508</v>
+        <v>-0.08935397018085993</v>
       </c>
       <c r="C33">
-        <v>0.01405400561302509</v>
+        <v>-0.008201332422185225</v>
       </c>
       <c r="D33">
-        <v>-0.09260167944633045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1051367011485874</v>
+      </c>
+      <c r="E33">
+        <v>-0.04999753310195289</v>
+      </c>
+      <c r="F33">
+        <v>-0.04390464355426631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06780638829093839</v>
+        <v>-0.06619343622809418</v>
       </c>
       <c r="C34">
-        <v>0.01591855435119511</v>
+        <v>-0.01102283534385585</v>
       </c>
       <c r="D34">
-        <v>-0.09941149269884408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1114609571613587</v>
+      </c>
+      <c r="E34">
+        <v>-0.04016892779934705</v>
+      </c>
+      <c r="F34">
+        <v>-0.03712088606070036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02648375471924033</v>
+        <v>-0.02775177465903003</v>
       </c>
       <c r="C35">
-        <v>0.004461182108636461</v>
+        <v>-0.003909562773694019</v>
       </c>
       <c r="D35">
-        <v>-0.008531928398833998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01164789867135681</v>
+      </c>
+      <c r="E35">
+        <v>-0.01658063541757244</v>
+      </c>
+      <c r="F35">
+        <v>0.0007314525942489701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02379853715809254</v>
+        <v>-0.02836132825845446</v>
       </c>
       <c r="C36">
-        <v>0.008552130618026239</v>
+        <v>-0.007369446443202894</v>
       </c>
       <c r="D36">
-        <v>-0.0385799158338709</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0401227825916813</v>
+      </c>
+      <c r="E36">
+        <v>-0.02039019459790431</v>
+      </c>
+      <c r="F36">
+        <v>-0.01568518893728608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002409920404335542</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007675160290809905</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003130171941016153</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006775644744540568</v>
+      </c>
+      <c r="F37">
+        <v>0.001311901206722652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1080441933027602</v>
+        <v>-0.09758707092860683</v>
       </c>
       <c r="C39">
-        <v>0.02335121932876468</v>
+        <v>-0.01673297217632699</v>
       </c>
       <c r="D39">
-        <v>-0.1515767759715174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1529908630370458</v>
+      </c>
+      <c r="E39">
+        <v>-0.06610589344617521</v>
+      </c>
+      <c r="F39">
+        <v>-0.02122275613511985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03905609447447698</v>
+        <v>-0.04475830792023714</v>
       </c>
       <c r="C40">
-        <v>0.009977773780933168</v>
+        <v>-0.008831528268882375</v>
       </c>
       <c r="D40">
-        <v>-0.02513600741320921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03234187326185423</v>
+      </c>
+      <c r="E40">
+        <v>-0.001916892057612943</v>
+      </c>
+      <c r="F40">
+        <v>0.01561609467378215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02514202510010683</v>
+        <v>-0.02757756331114327</v>
       </c>
       <c r="C41">
-        <v>0.007962552655881069</v>
+        <v>-0.007210155820406375</v>
       </c>
       <c r="D41">
-        <v>-0.00832737339398682</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01033608374596993</v>
+      </c>
+      <c r="E41">
+        <v>-0.01339436713425705</v>
+      </c>
+      <c r="F41">
+        <v>0.007152910354450022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04108949795968594</v>
+        <v>-0.03981335026666855</v>
       </c>
       <c r="C43">
-        <v>0.008647604766314414</v>
+        <v>-0.007959527080285798</v>
       </c>
       <c r="D43">
-        <v>-0.01884981878366275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02081279262281028</v>
+      </c>
+      <c r="E43">
+        <v>-0.02726425985339302</v>
+      </c>
+      <c r="F43">
+        <v>0.01567325362149075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05964838342955196</v>
+        <v>-0.07141594003642859</v>
       </c>
       <c r="C44">
-        <v>0.02209071946654324</v>
+        <v>-0.01850230672380751</v>
       </c>
       <c r="D44">
-        <v>-0.09019611738032275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08876452465197583</v>
+      </c>
+      <c r="E44">
+        <v>-0.05877888082582633</v>
+      </c>
+      <c r="F44">
+        <v>-0.1683899540581485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>4.468996007300954e-07</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1.71353156181243e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.98227259375695e-05</v>
+      </c>
+      <c r="E45">
+        <v>8.399704609517686e-05</v>
+      </c>
+      <c r="F45">
+        <v>0.000102798778125892</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02065072165392139</v>
+        <v>-0.02411549173110136</v>
       </c>
       <c r="C46">
-        <v>0.004569888557241292</v>
+        <v>-0.003549294860465016</v>
       </c>
       <c r="D46">
-        <v>-0.01118250059112907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0145626706691961</v>
+      </c>
+      <c r="E46">
+        <v>-0.03174267228831296</v>
+      </c>
+      <c r="F46">
+        <v>0.005941509182306183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0540156115911497</v>
+        <v>-0.05346703750083256</v>
       </c>
       <c r="C47">
-        <v>0.006490826322622531</v>
+        <v>-0.005204924038814042</v>
       </c>
       <c r="D47">
-        <v>-0.007323615730555328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01164486444094289</v>
+      </c>
+      <c r="E47">
+        <v>-0.02434250318675665</v>
+      </c>
+      <c r="F47">
+        <v>0.03068023955443093</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04809884525033387</v>
+        <v>-0.0514619024438881</v>
       </c>
       <c r="C48">
-        <v>0.005675839531633719</v>
+        <v>-0.002927258399739684</v>
       </c>
       <c r="D48">
-        <v>-0.04909384501573305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05208499141059249</v>
+      </c>
+      <c r="E48">
+        <v>0.002361222464033185</v>
+      </c>
+      <c r="F48">
+        <v>-0.01470100548481957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1982072872172043</v>
+        <v>-0.2001029381361197</v>
       </c>
       <c r="C49">
-        <v>0.02562503332781325</v>
+        <v>-0.02322242664587089</v>
       </c>
       <c r="D49">
-        <v>0.01059855336094175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005402361890884045</v>
+      </c>
+      <c r="E49">
+        <v>-0.02626232278145876</v>
+      </c>
+      <c r="F49">
+        <v>-0.05111875125875601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04927931248223439</v>
+        <v>-0.05177742948509335</v>
       </c>
       <c r="C50">
-        <v>0.01391068652147986</v>
+        <v>-0.01241352565540684</v>
       </c>
       <c r="D50">
-        <v>-0.02276480430222762</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02560612508275214</v>
+      </c>
+      <c r="E50">
+        <v>-0.03156171602632384</v>
+      </c>
+      <c r="F50">
+        <v>-0.01056558723330349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1538077360028479</v>
+        <v>-0.1470595878274501</v>
       </c>
       <c r="C52">
-        <v>0.02328871785286192</v>
+        <v>-0.0206281163024324</v>
       </c>
       <c r="D52">
-        <v>-0.04202876736524734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04470264249050674</v>
+      </c>
+      <c r="E52">
+        <v>-0.0234900683259285</v>
+      </c>
+      <c r="F52">
+        <v>-0.04013113331288306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1752825473172332</v>
+        <v>-0.1685950298821965</v>
       </c>
       <c r="C53">
-        <v>0.02528359697555134</v>
+        <v>-0.02419812460518881</v>
       </c>
       <c r="D53">
-        <v>-0.00529398779448194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008068524837318259</v>
+      </c>
+      <c r="E53">
+        <v>-0.0304637541544494</v>
+      </c>
+      <c r="F53">
+        <v>-0.0737659893952661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01489080287312506</v>
+        <v>-0.01768531239037354</v>
       </c>
       <c r="C54">
-        <v>0.01170433725662583</v>
+        <v>-0.0108027562891453</v>
       </c>
       <c r="D54">
-        <v>-0.02941169972094841</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02821733973731413</v>
+      </c>
+      <c r="E54">
+        <v>-0.02216182676455963</v>
+      </c>
+      <c r="F54">
+        <v>0.004848864641986764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1180411405078414</v>
+        <v>-0.1159922234309103</v>
       </c>
       <c r="C55">
-        <v>0.02164995450822962</v>
+        <v>-0.0208611800551279</v>
       </c>
       <c r="D55">
-        <v>-0.00313807099690668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01043677582962101</v>
+      </c>
+      <c r="E55">
+        <v>-0.02983006781995845</v>
+      </c>
+      <c r="F55">
+        <v>-0.04456647403393886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.180561784287895</v>
+        <v>-0.1751460520929304</v>
       </c>
       <c r="C56">
-        <v>0.02305136414715636</v>
+        <v>-0.02230964362813504</v>
       </c>
       <c r="D56">
-        <v>0.006304244819611514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0006992190578504874</v>
+      </c>
+      <c r="E56">
+        <v>-0.03252993514345886</v>
+      </c>
+      <c r="F56">
+        <v>-0.05418962412070206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04417061200921225</v>
+        <v>-0.04362503576022631</v>
       </c>
       <c r="C58">
-        <v>0.004120940178645026</v>
+        <v>0.0004644387330226023</v>
       </c>
       <c r="D58">
-        <v>-0.06810160307261494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07755304545405366</v>
+      </c>
+      <c r="E58">
+        <v>-0.03538997895001111</v>
+      </c>
+      <c r="F58">
+        <v>0.03540213270244342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1634613381372283</v>
+        <v>-0.1697031932172554</v>
       </c>
       <c r="C59">
-        <v>0.02089773077367397</v>
+        <v>-0.02667314972386058</v>
       </c>
       <c r="D59">
-        <v>0.2198171296977879</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2150590386776345</v>
+      </c>
+      <c r="E59">
+        <v>0.05285862011412813</v>
+      </c>
+      <c r="F59">
+        <v>0.04092982683698482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2356237522683399</v>
+        <v>-0.2278092014064713</v>
       </c>
       <c r="C60">
-        <v>0.006964131701404881</v>
+        <v>-0.002933534714255051</v>
       </c>
       <c r="D60">
-        <v>-0.03745865561239605</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03881467746653497</v>
+      </c>
+      <c r="E60">
+        <v>0.002198919452136922</v>
+      </c>
+      <c r="F60">
+        <v>-0.00660907684053901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07980920206168406</v>
+        <v>-0.07414701340177615</v>
       </c>
       <c r="C61">
-        <v>0.01729180632933606</v>
+        <v>-0.0115908481806544</v>
       </c>
       <c r="D61">
-        <v>-0.1138560018864292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1190518211700684</v>
+      </c>
+      <c r="E61">
+        <v>-0.0433754073367054</v>
+      </c>
+      <c r="F61">
+        <v>-0.01018191549696303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1723960657766824</v>
+        <v>-0.1681045355124348</v>
       </c>
       <c r="C62">
-        <v>0.02649134398941976</v>
+        <v>-0.0246926606366525</v>
       </c>
       <c r="D62">
-        <v>-0.00106967295937643</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008802503406488714</v>
+      </c>
+      <c r="E62">
+        <v>-0.03614391318272025</v>
+      </c>
+      <c r="F62">
+        <v>-0.04021776963495452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04273193756038077</v>
+        <v>-0.04674249000477395</v>
       </c>
       <c r="C63">
-        <v>0.005883515303037632</v>
+        <v>-0.002855253038744957</v>
       </c>
       <c r="D63">
-        <v>-0.05266416955678003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06249945330769647</v>
+      </c>
+      <c r="E63">
+        <v>-0.02693813583082012</v>
+      </c>
+      <c r="F63">
+        <v>-0.001576532165180644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1148506084395612</v>
+        <v>-0.1120626270055959</v>
       </c>
       <c r="C64">
-        <v>0.01858702975741898</v>
+        <v>-0.01494267005916909</v>
       </c>
       <c r="D64">
-        <v>-0.03559661165569843</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04264371302278488</v>
+      </c>
+      <c r="E64">
+        <v>-0.02786083786800006</v>
+      </c>
+      <c r="F64">
+        <v>-0.02681502131766215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1473869848299479</v>
+        <v>-0.154396199074765</v>
       </c>
       <c r="C65">
-        <v>0.03902763802245127</v>
+        <v>-0.0384134895136154</v>
       </c>
       <c r="D65">
-        <v>0.05134368178316343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04094967793970701</v>
+      </c>
+      <c r="E65">
+        <v>-0.008529653326608828</v>
+      </c>
+      <c r="F65">
+        <v>-0.0388187793459628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1302751142487335</v>
+        <v>-0.1170358827969937</v>
       </c>
       <c r="C66">
-        <v>0.02196595806999375</v>
+        <v>-0.01494028545063576</v>
       </c>
       <c r="D66">
-        <v>-0.1352366293333095</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1427470835437931</v>
+      </c>
+      <c r="E66">
+        <v>-0.0674626514014231</v>
+      </c>
+      <c r="F66">
+        <v>-0.02753283729417079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06335883144504965</v>
+        <v>-0.05621156452350876</v>
       </c>
       <c r="C67">
-        <v>0.007212365954789381</v>
+        <v>-0.004768326493167471</v>
       </c>
       <c r="D67">
-        <v>-0.05405632753225683</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0576808773902374</v>
+      </c>
+      <c r="E67">
+        <v>-0.02392300074317181</v>
+      </c>
+      <c r="F67">
+        <v>0.03403940935035531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1124910857987707</v>
+        <v>-0.1210194794749537</v>
       </c>
       <c r="C68">
-        <v>0.02915355351805034</v>
+        <v>-0.03699449222277698</v>
       </c>
       <c r="D68">
-        <v>0.2609610996585316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2575270469008572</v>
+      </c>
+      <c r="E68">
+        <v>0.08821496724386385</v>
+      </c>
+      <c r="F68">
+        <v>-0.002288246306399067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03931711045408157</v>
+        <v>-0.03884037113622633</v>
       </c>
       <c r="C69">
-        <v>0.002896006184594531</v>
+        <v>-0.00185799297038191</v>
       </c>
       <c r="D69">
-        <v>-0.009763353513215861</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01064959555113367</v>
+      </c>
+      <c r="E69">
+        <v>-0.02845290708510176</v>
+      </c>
+      <c r="F69">
+        <v>0.0006646519239386407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06904965487937531</v>
+        <v>-0.06864418474453561</v>
       </c>
       <c r="C70">
-        <v>-0.02305005458046632</v>
+        <v>0.02540033549307174</v>
       </c>
       <c r="D70">
-        <v>-0.02696682588606069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03125650424329273</v>
+      </c>
+      <c r="E70">
+        <v>0.02519492802192722</v>
+      </c>
+      <c r="F70">
+        <v>0.1848133267036944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1310120860113848</v>
+        <v>-0.1411997475082984</v>
       </c>
       <c r="C71">
-        <v>0.03413859220582301</v>
+        <v>-0.04195216238034553</v>
       </c>
       <c r="D71">
-        <v>0.2759096412237898</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2674255375193797</v>
+      </c>
+      <c r="E71">
+        <v>0.09950068674523413</v>
+      </c>
+      <c r="F71">
+        <v>-0.006799985603016833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1373001759263187</v>
+        <v>-0.143798989513906</v>
       </c>
       <c r="C72">
-        <v>0.03065109764111246</v>
+        <v>-0.03058741694954387</v>
       </c>
       <c r="D72">
-        <v>-0.001764253701483014</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006943229133324714</v>
+      </c>
+      <c r="E72">
+        <v>-0.04011487424653988</v>
+      </c>
+      <c r="F72">
+        <v>-0.02970478621314778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2000779577286617</v>
+        <v>-0.2025882290266834</v>
       </c>
       <c r="C73">
-        <v>0.02014838831563109</v>
+        <v>-0.01626541927716319</v>
       </c>
       <c r="D73">
-        <v>-0.009654422088134376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01679053133110799</v>
+      </c>
+      <c r="E73">
+        <v>-0.06537940974486273</v>
+      </c>
+      <c r="F73">
+        <v>-0.04119312024805762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0882772926085419</v>
+        <v>-0.08940990618861694</v>
       </c>
       <c r="C74">
-        <v>0.01516445781760499</v>
+        <v>-0.01413619848955953</v>
       </c>
       <c r="D74">
-        <v>-0.01280150039234128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01687982722006528</v>
+      </c>
+      <c r="E74">
+        <v>-0.04264713265546227</v>
+      </c>
+      <c r="F74">
+        <v>-0.05049240250608319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1323298359215476</v>
+        <v>-0.1245958794608065</v>
       </c>
       <c r="C75">
-        <v>0.03356923153605943</v>
+        <v>-0.0311693988356501</v>
       </c>
       <c r="D75">
-        <v>-0.02486529425188035</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03156258734966143</v>
+      </c>
+      <c r="E75">
+        <v>-0.05697758096631664</v>
+      </c>
+      <c r="F75">
+        <v>-0.02074688332540099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08058593197174867</v>
+        <v>-0.09178836199256765</v>
       </c>
       <c r="C77">
-        <v>0.01508254041700825</v>
+        <v>-0.009914867596902162</v>
       </c>
       <c r="D77">
-        <v>-0.1155358704552447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1190374505718817</v>
+      </c>
+      <c r="E77">
+        <v>-0.05007496893261151</v>
+      </c>
+      <c r="F77">
+        <v>-0.03583196264026248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09836507820471475</v>
+        <v>-0.09904611852591441</v>
       </c>
       <c r="C78">
-        <v>0.04543258069570041</v>
+        <v>-0.04116905713549829</v>
       </c>
       <c r="D78">
-        <v>-0.1115055309250809</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1099410612941874</v>
+      </c>
+      <c r="E78">
+        <v>-0.07702585037053553</v>
+      </c>
+      <c r="F78">
+        <v>-0.05201264322674325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1690777664431731</v>
+        <v>-0.1645597239112596</v>
       </c>
       <c r="C79">
-        <v>0.02975721722328891</v>
+        <v>-0.02779467322806557</v>
       </c>
       <c r="D79">
-        <v>-0.009331511558190222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01660235832687878</v>
+      </c>
+      <c r="E79">
+        <v>-0.04831890062931554</v>
+      </c>
+      <c r="F79">
+        <v>-0.01259641525198577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07988581091878338</v>
+        <v>-0.07875951265931819</v>
       </c>
       <c r="C80">
-        <v>0.003613877363859345</v>
+        <v>-0.0009188214256424896</v>
       </c>
       <c r="D80">
-        <v>-0.052527312922041</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05170539367605598</v>
+      </c>
+      <c r="E80">
+        <v>-0.03688235168843274</v>
+      </c>
+      <c r="F80">
+        <v>0.02920027609900263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1189619096066522</v>
+        <v>-0.113750986672759</v>
       </c>
       <c r="C81">
-        <v>0.03522755467095431</v>
+        <v>-0.0340678566182844</v>
       </c>
       <c r="D81">
-        <v>-0.006183084439092028</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01205874424863314</v>
+      </c>
+      <c r="E81">
+        <v>-0.05220795742605028</v>
+      </c>
+      <c r="F81">
+        <v>-0.01679559700228327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1645396942102551</v>
+        <v>-0.1632008213574927</v>
       </c>
       <c r="C82">
-        <v>0.02939547205450914</v>
+        <v>-0.02907753162758335</v>
       </c>
       <c r="D82">
-        <v>-0.004659137740406159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003612298028078679</v>
+      </c>
+      <c r="E82">
+        <v>-0.02749513928424329</v>
+      </c>
+      <c r="F82">
+        <v>-0.08162375294302844</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05832988410629567</v>
+        <v>-0.05306560176565923</v>
       </c>
       <c r="C83">
-        <v>0.00556127570416041</v>
+        <v>-0.00345240456492421</v>
       </c>
       <c r="D83">
-        <v>-0.03734883557498099</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03920836029593837</v>
+      </c>
+      <c r="E83">
+        <v>0.002834832120509838</v>
+      </c>
+      <c r="F83">
+        <v>0.03532681521641717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0598658751543576</v>
+        <v>-0.05541735864151002</v>
       </c>
       <c r="C84">
-        <v>0.0141378433903141</v>
+        <v>-0.0111425685114689</v>
       </c>
       <c r="D84">
-        <v>-0.07639112848006785</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07762431010586328</v>
+      </c>
+      <c r="E84">
+        <v>-0.01451081480055515</v>
+      </c>
+      <c r="F84">
+        <v>-0.01642095567254735</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401344315313481</v>
+        <v>-0.1350615796107612</v>
       </c>
       <c r="C85">
-        <v>0.03317144176163105</v>
+        <v>-0.03197100888776088</v>
       </c>
       <c r="D85">
-        <v>-0.006827511680690961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01108503476240137</v>
+      </c>
+      <c r="E85">
+        <v>-0.03886606367732348</v>
+      </c>
+      <c r="F85">
+        <v>-0.0474424238212075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.100008758549502</v>
+        <v>-0.09236305103968176</v>
       </c>
       <c r="C86">
-        <v>-0.001391763479252658</v>
+        <v>0.005120267698025835</v>
       </c>
       <c r="D86">
-        <v>-0.01964645221460802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05600351493071837</v>
+      </c>
+      <c r="E86">
+        <v>-0.2123173898936125</v>
+      </c>
+      <c r="F86">
+        <v>0.8984426429480918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09376994014599298</v>
+        <v>-0.09088906671333499</v>
       </c>
       <c r="C87">
-        <v>0.02922533485560778</v>
+        <v>-0.02132482295958641</v>
       </c>
       <c r="D87">
-        <v>-0.07056456400457223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08903910287666281</v>
+      </c>
+      <c r="E87">
+        <v>0.05859310542671328</v>
+      </c>
+      <c r="F87">
+        <v>-0.05119017773260483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06255615750325201</v>
+        <v>-0.06131157345235377</v>
       </c>
       <c r="C88">
-        <v>0.006599686191110295</v>
+        <v>-0.003630582796704252</v>
       </c>
       <c r="D88">
-        <v>-0.05001292449041774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05051458355825067</v>
+      </c>
+      <c r="E88">
+        <v>-0.02804356217054237</v>
+      </c>
+      <c r="F88">
+        <v>-0.0139877513945266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1227038264072197</v>
+        <v>-0.1308672166402088</v>
       </c>
       <c r="C89">
-        <v>0.009801130011142911</v>
+        <v>-0.01714514867474089</v>
       </c>
       <c r="D89">
-        <v>0.237060056894435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2397690668174318</v>
+      </c>
+      <c r="E89">
+        <v>0.09018507842344026</v>
+      </c>
+      <c r="F89">
+        <v>0.007618855940257991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1417655586793933</v>
+        <v>-0.1557281207039057</v>
       </c>
       <c r="C90">
-        <v>0.03002286378296609</v>
+        <v>-0.03860706370926287</v>
       </c>
       <c r="D90">
-        <v>0.261986956018534</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2651853447533994</v>
+      </c>
+      <c r="E90">
+        <v>0.1173156629917865</v>
+      </c>
+      <c r="F90">
+        <v>0.007167768812978616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1243961127627449</v>
+        <v>-0.1208641664564751</v>
       </c>
       <c r="C91">
-        <v>0.02398140619148251</v>
+        <v>-0.02339981936846616</v>
       </c>
       <c r="D91">
-        <v>0.0197243725147977</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01450892696986885</v>
+      </c>
+      <c r="E91">
+        <v>-0.05670127062840866</v>
+      </c>
+      <c r="F91">
+        <v>0.003477951464186837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1427807580901429</v>
+        <v>-0.148844547202303</v>
       </c>
       <c r="C92">
-        <v>0.02095230648006863</v>
+        <v>-0.02957525873894135</v>
       </c>
       <c r="D92">
-        <v>0.2918314743475415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2908912824923782</v>
+      </c>
+      <c r="E92">
+        <v>0.1025300348023474</v>
+      </c>
+      <c r="F92">
+        <v>0.02164661423583158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1469769334548234</v>
+        <v>-0.1587151266949891</v>
       </c>
       <c r="C93">
-        <v>0.02671543839602157</v>
+        <v>-0.03386870195196715</v>
       </c>
       <c r="D93">
-        <v>0.2592182114227586</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.258648529109826</v>
+      </c>
+      <c r="E93">
+        <v>0.0732841115146101</v>
+      </c>
+      <c r="F93">
+        <v>-0.005341734711804635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1314295202007804</v>
+        <v>-0.1237139560813809</v>
       </c>
       <c r="C94">
-        <v>0.02974657831757601</v>
+        <v>-0.02674090365660987</v>
       </c>
       <c r="D94">
-        <v>-0.03915583158013546</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04366867683841767</v>
+      </c>
+      <c r="E94">
+        <v>-0.05884759422898756</v>
+      </c>
+      <c r="F94">
+        <v>-0.03143485002877051</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1263035459276657</v>
+        <v>-0.128253448239342</v>
       </c>
       <c r="C95">
-        <v>0.01190291101482043</v>
+        <v>-0.00645233402475547</v>
       </c>
       <c r="D95">
-        <v>-0.08900515343866047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.100246707826594</v>
+      </c>
+      <c r="E95">
+        <v>-0.06239774781446875</v>
+      </c>
+      <c r="F95">
+        <v>-0.004057383625449544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1432422683960503</v>
+        <v>-0.1330655298476607</v>
       </c>
       <c r="C96">
-        <v>-0.9839857181283334</v>
+        <v>0.9843176126833882</v>
       </c>
       <c r="D96">
-        <v>0.02445346596749028</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05353756601658272</v>
+      </c>
+      <c r="E96">
+        <v>-0.04902600047340881</v>
+      </c>
+      <c r="F96">
+        <v>-0.04160384177086127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1885860389304969</v>
+        <v>-0.1921693539111007</v>
       </c>
       <c r="C97">
-        <v>-0.0005849483148567086</v>
+        <v>0.00133237521934577</v>
       </c>
       <c r="D97">
-        <v>0.02661615517267192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02931852423120304</v>
+      </c>
+      <c r="E97">
+        <v>-0.02937122224026157</v>
+      </c>
+      <c r="F97">
+        <v>0.1120377489926426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1980715415598752</v>
+        <v>-0.2038718679851964</v>
       </c>
       <c r="C98">
-        <v>0.01518740066438322</v>
+        <v>-0.01079692263353056</v>
       </c>
       <c r="D98">
-        <v>-0.01182174305710358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01411145130765536</v>
+      </c>
+      <c r="E98">
+        <v>0.07829672016260708</v>
+      </c>
+      <c r="F98">
+        <v>0.1002907292451718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05686238574706164</v>
+        <v>-0.05641538399686114</v>
       </c>
       <c r="C99">
-        <v>-0.000952221262862048</v>
+        <v>0.002962267609070425</v>
       </c>
       <c r="D99">
-        <v>-0.03746409107672591</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0425920990491186</v>
+      </c>
+      <c r="E99">
+        <v>-0.02497469283830538</v>
+      </c>
+      <c r="F99">
+        <v>-0.005135711239051843</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1481286793012303</v>
+        <v>-0.134346987666613</v>
       </c>
       <c r="C100">
-        <v>-0.03459742200795381</v>
+        <v>0.04683716628723716</v>
       </c>
       <c r="D100">
-        <v>-0.4058528420948099</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3664333395075485</v>
+      </c>
+      <c r="E100">
+        <v>0.8814193267333329</v>
+      </c>
+      <c r="F100">
+        <v>0.1377063341404956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02515939527533166</v>
+        <v>-0.02772882086302503</v>
       </c>
       <c r="C101">
-        <v>0.009639945201688625</v>
+        <v>-0.008982776763326726</v>
       </c>
       <c r="D101">
-        <v>-0.0299268421047645</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03001429166926907</v>
+      </c>
+      <c r="E101">
+        <v>-0.01656765327925401</v>
+      </c>
+      <c r="F101">
+        <v>0.0150882934105643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
